--- a/000_management/tasklist.xlsx
+++ b/000_management/tasklist.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="47">
   <si>
     <t>NO</t>
     <phoneticPr fontId="4"/>
@@ -395,6 +395,72 @@
       <t>ヤマダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/19
+　登録済み</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/19
+　カラオケは1人あたり500円以上/30分なので高くつく。
+　貸し会議室でいくつか候補あり</t>
+    <rPh sb="12" eb="13">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>カイギシツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/110
+　カラオケは1人あたり500円以上/30分なので高くつく。
+　貸し会議室でいくつか候補あり</t>
+  </si>
+  <si>
+    <t>4/111
+　カラオケは1人あたり500円以上/30分なので高くつく。
+　貸し会議室でいくつか候補あり</t>
+  </si>
+  <si>
+    <t>4/112
+　カラオケは1人あたり500円以上/30分なので高くつく。
+　貸し会議室でいくつか候補あり</t>
+  </si>
+  <si>
+    <t>4/113
+　カラオケは1人あたり500円以上/30分なので高くつく。
+　貸し会議室でいくつか候補あり</t>
+  </si>
+  <si>
+    <t>4/1
+　カラオケは1人あたり500円以上/30分なので高くつく。
+　貸し会議室でいくつか候補あり</t>
   </si>
 </sst>
 </file>
@@ -541,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -600,8 +666,23 @@
     <xf numFmtId="56" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -622,7 +703,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -659,6 +747,48 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -722,20 +852,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -764,48 +880,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -827,13 +901,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -855,6 +922,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -867,69 +955,6 @@
           <bgColor indexed="22"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1589,10 +1614,10 @@
   <dimension ref="A1:AU31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1625,48 +1650,48 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:47" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:47" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
@@ -1737,35 +1762,37 @@
       <c r="AU4" s="9"/>
     </row>
     <row r="5" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+      <c r="A5" s="20">
         <f t="shared" ref="A5:A16" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="23">
         <v>42838</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="23">
         <v>42832</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="23">
+        <v>42838</v>
+      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -1805,35 +1832,37 @@
       <c r="AU5" s="9"/>
     </row>
     <row r="6" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+      <c r="A6" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="23">
         <v>42838</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="23">
         <v>42832</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="23">
+        <v>42838</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -2008,73 +2037,73 @@
       <c r="AT8" s="9"/>
       <c r="AU8" s="9"/>
     </row>
-    <row r="9" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+    <row r="9" spans="1:47" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="23">
         <v>42838</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="23">
         <v>42832</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="9"/>
-      <c r="AT9" s="9"/>
-      <c r="AU9" s="9"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
     </row>
     <row r="10" spans="1:47" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
@@ -2140,12 +2169,14 @@
       <c r="AT10" s="9"/>
       <c r="AU10" s="9"/>
     </row>
-    <row r="11" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:47" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
@@ -2155,7 +2186,9 @@
       <c r="E11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="G11" s="14">
         <v>42845</v>
       </c>
@@ -2165,7 +2198,9 @@
       <c r="I11" s="14">
         <v>42838</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="J11" s="14">
+        <v>42844</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -2204,12 +2239,14 @@
       <c r="AT11" s="9"/>
       <c r="AU11" s="9"/>
     </row>
-    <row r="12" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:47" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" s="11" t="s">
         <v>36</v>
       </c>
@@ -2219,7 +2256,9 @@
       <c r="E12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="G12" s="14">
         <v>42845</v>
       </c>
@@ -3105,263 +3144,273 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:H4 A14:H16 A4:A16 A5:F7">
-    <cfRule type="expression" dxfId="61" priority="493" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="498" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="60" priority="386" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="391" stopIfTrue="1">
       <formula>$G16&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="59" priority="384" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="389" stopIfTrue="1">
       <formula>($B16="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="58" priority="362" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="367" stopIfTrue="1">
       <formula>($B16="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A16">
-    <cfRule type="expression" dxfId="57" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="71" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="56" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="70" stopIfTrue="1">
       <formula>$G4&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="55" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="69" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="54" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="68" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="53" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="66" stopIfTrue="1">
       <formula>$G15&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="52" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="65" stopIfTrue="1">
       <formula>($B15="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="51" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="64" stopIfTrue="1">
       <formula>($B15="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="50" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="62" stopIfTrue="1">
       <formula>$G14&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="49" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="61" stopIfTrue="1">
       <formula>($B14="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="48" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="60" stopIfTrue="1">
       <formula>($B14="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="47" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="56" stopIfTrue="1">
       <formula>($B7="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="46" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
       <formula>$G6&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="45" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="42" stopIfTrue="1">
       <formula>($B6="済")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="36" priority="48" stopIfTrue="1">
+      <formula>($B5="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:H5">
+    <cfRule type="expression" dxfId="35" priority="47" stopIfTrue="1">
+      <formula>($B5="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="34" priority="46" stopIfTrue="1">
+      <formula>$G5&lt;TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="expression" dxfId="33" priority="45" stopIfTrue="1">
+      <formula>($B5="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:H6">
+    <cfRule type="expression" dxfId="32" priority="44" stopIfTrue="1">
+      <formula>($B6="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="expression" dxfId="31" priority="34" stopIfTrue="1">
+      <formula>($B12="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:H13 A12 F12 C12:D12">
+    <cfRule type="expression" dxfId="30" priority="41" stopIfTrue="1">
+      <formula>($B12="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:A13">
+    <cfRule type="expression" dxfId="29" priority="40" stopIfTrue="1">
+      <formula>($B12="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="28" priority="39" stopIfTrue="1">
+      <formula>$G13&lt;TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="27" priority="38" stopIfTrue="1">
+      <formula>($B13="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="26" priority="37" stopIfTrue="1">
+      <formula>($B13="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
+      <formula>$G10&lt;TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+      <formula>($B10="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:H10 A11 C11:H11">
+    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
+      <formula>($B10="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A11">
+    <cfRule type="expression" dxfId="22" priority="32" stopIfTrue="1">
+      <formula>($B10="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
+      <formula>$G11&lt;TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="20" priority="29" stopIfTrue="1">
+      <formula>($B11="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="expression" dxfId="19" priority="26" stopIfTrue="1">
+      <formula>($B10="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:F9 A8:A9">
+    <cfRule type="expression" dxfId="18" priority="25" stopIfTrue="1">
+      <formula>($B8="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A9">
+    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
+      <formula>($B8="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="expression" dxfId="16" priority="21" stopIfTrue="1">
+      <formula>($B9="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+      <formula>($B8="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+      <formula>($B8="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+      <formula>($B9="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G9">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>$G7&lt;TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:I9">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+      <formula>($B7="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H9">
+    <cfRule type="expression" dxfId="10" priority="15" stopIfTrue="1">
+      <formula>($B7="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>($B8="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+      <formula>($B9="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+      <formula>($B12="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+      <formula>($B12="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+      <formula>$G12&lt;TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+      <formula>($B12="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I12">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>($B11="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>($B12="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>($B11="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="44" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>($B6="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="41" priority="43" stopIfTrue="1">
-      <formula>($B5="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H5">
-    <cfRule type="expression" dxfId="40" priority="42" stopIfTrue="1">
-      <formula>($B5="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
-      <formula>$G5&lt;TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
-      <formula>($B5="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
-      <formula>($B6="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="36" priority="29" stopIfTrue="1">
-      <formula>($B12="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:H13 A12:D12 F12">
-    <cfRule type="expression" dxfId="35" priority="36" stopIfTrue="1">
-      <formula>($B12="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A13">
-    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
-      <formula>($B12="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
-      <formula>$G13&lt;TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
-      <formula>($B13="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
-      <formula>($B13="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="30" priority="23" stopIfTrue="1">
-      <formula>$G10&lt;TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="29" priority="22" stopIfTrue="1">
-      <formula>($B10="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:H11">
-    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
-      <formula>($B10="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:A11">
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
-      <formula>($B10="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
-      <formula>$G11&lt;TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
-      <formula>($B11="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>($B10="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F9 A8:A9">
-    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
-      <formula>($B8="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A9">
-    <cfRule type="expression" dxfId="21" priority="19" stopIfTrue="1">
-      <formula>($B8="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
-      <formula>($B9="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
-      <formula>($B8="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
-      <formula>($B8="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
-      <formula>($B9="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G9">
-    <cfRule type="expression" dxfId="16" priority="9" stopIfTrue="1">
-      <formula>$G7&lt;TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I9">
-    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
-      <formula>($B7="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H9">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
-      <formula>($B7="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
-      <formula>($B8="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
-      <formula>($B9="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
-      <formula>($B12="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
-      <formula>($B12="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
-      <formula>$G12&lt;TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
-      <formula>($B12="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I12">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>($B11="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/000_management/tasklist.xlsx
+++ b/000_management/tasklist.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>NO</t>
     <phoneticPr fontId="4"/>
@@ -436,31 +436,6 @@
       <t>コウホ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4/110
-　カラオケは1人あたり500円以上/30分なので高くつく。
-　貸し会議室でいくつか候補あり</t>
-  </si>
-  <si>
-    <t>4/111
-　カラオケは1人あたり500円以上/30分なので高くつく。
-　貸し会議室でいくつか候補あり</t>
-  </si>
-  <si>
-    <t>4/112
-　カラオケは1人あたり500円以上/30分なので高くつく。
-　貸し会議室でいくつか候補あり</t>
-  </si>
-  <si>
-    <t>4/113
-　カラオケは1人あたり500円以上/30分なので高くつく。
-　貸し会議室でいくつか候補あり</t>
-  </si>
-  <si>
-    <t>4/1
-　カラオケは1人あたり500円以上/30分なので高くつく。
-　貸し会議室でいくつか候補あり</t>
   </si>
 </sst>
 </file>
@@ -684,8 +659,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -693,17 +671,28 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1617,7 +1606,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1650,48 +1639,48 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:47" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:47" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
@@ -2170,35 +2159,35 @@
       <c r="AU10" s="9"/>
     </row>
     <row r="11" spans="1:47" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+      <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="23">
         <v>42845</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="23">
         <v>42838</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="23">
         <v>42844</v>
       </c>
       <c r="K11" s="9"/>
@@ -3131,286 +3120,286 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:H4 A14:H16 A4:A16 A5:F7">
-    <cfRule type="expression" dxfId="53" priority="498" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="499" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="52" priority="391" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="392" stopIfTrue="1">
       <formula>$G16&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="51" priority="389" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="390" stopIfTrue="1">
       <formula>($B16="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="50" priority="367" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="368" stopIfTrue="1">
       <formula>($B16="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A16">
-    <cfRule type="expression" dxfId="49" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="72" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="48" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="71" stopIfTrue="1">
       <formula>$G4&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="47" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="70" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="46" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="69" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="45" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="67" stopIfTrue="1">
       <formula>$G15&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="44" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="66" stopIfTrue="1">
       <formula>($B15="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="43" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="65" stopIfTrue="1">
       <formula>($B15="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="42" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="63" stopIfTrue="1">
       <formula>$G14&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="41" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="62" stopIfTrue="1">
       <formula>($B14="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="40" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="61" stopIfTrue="1">
       <formula>($B14="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="39" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="57" stopIfTrue="1">
       <formula>($B7="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="44" stopIfTrue="1">
       <formula>$G6&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="37" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="43" stopIfTrue="1">
       <formula>($B6="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="36" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="49" stopIfTrue="1">
       <formula>($B5="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="expression" dxfId="35" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="48" stopIfTrue="1">
       <formula>($B5="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="34" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="47" stopIfTrue="1">
       <formula>$G5&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="33" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="46" stopIfTrue="1">
       <formula>($B5="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="32" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="45" stopIfTrue="1">
       <formula>($B6="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="31" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:H13 A12 F12 C12:D12">
-    <cfRule type="expression" dxfId="30" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="42" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="expression" dxfId="29" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="41" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="28" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="40" stopIfTrue="1">
       <formula>$G13&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="27" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="39" stopIfTrue="1">
       <formula>($B13="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="26" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="38" stopIfTrue="1">
       <formula>($B13="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
       <formula>$G10&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
       <formula>($B10="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:H10 A11 C11:H11">
-    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="34" stopIfTrue="1">
       <formula>($B10="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A11">
-    <cfRule type="expression" dxfId="22" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
       <formula>($B10="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="32" stopIfTrue="1">
       <formula>$G11&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="20" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="30" stopIfTrue="1">
       <formula>($B11="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="19" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="27" stopIfTrue="1">
       <formula>($B10="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F9 A8:A9">
-    <cfRule type="expression" dxfId="18" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="16" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="22" stopIfTrue="1">
       <formula>($B9="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>($B9="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>$G7&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I9">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>($B7="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H9">
+    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+      <formula>($B7="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
     <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
-      <formula>($B7="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H9">
-    <cfRule type="expression" dxfId="10" priority="15" stopIfTrue="1">
-      <formula>($B7="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>($B9="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>$G12&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I12">
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>($B11="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>($B6="済")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>($B11="済")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>($B6="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/000_management/tasklist.xlsx
+++ b/000_management/tasklist.xlsx
@@ -258,12 +258,111 @@
     <t>完了</t>
   </si>
   <si>
-    <t>4/12　お手製タブローで分析中</t>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価とFXの関連性を整理する
+→まずは過去にまとめた資料をいただく</t>
+    <rPh sb="0" eb="2">
+      <t>カブカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カンレンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印出</t>
+    <rPh sb="0" eb="1">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHubへの資料登録</t>
+    <rPh sb="8" eb="10">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回の場所の予約</t>
+    <rPh sb="0" eb="2">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バショ</t>
+    </rPh>
     <rPh sb="6" eb="8">
-      <t>テセイ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ブンセキチュウ</t>
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/19
+　登録済み</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/19
+　カラオケは1人あたり500円以上/30分なので高くつく。
+　貸し会議室でいくつか候補あり</t>
+    <rPh sb="12" eb="13">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>カイギシツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウホ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -273,8 +372,8 @@
 　・どのブローカーでやるのかが問題
 　・バックテストはできるが1分足でしかデータ取得はできない
 　・僅かなPipをとるので、掛け金を大幅に増やす
-　・本番で実施しないと意味がないため、1000通貨でテストをしてみるか
- 　→</t>
+　・本番で実施しないと意味がないため、もう少し精査できたら
+　　1000通貨でテストをしてみるか</t>
     <rPh sb="13" eb="14">
       <t>カン</t>
     </rPh>
@@ -323,117 +422,30 @@
     <rPh sb="124" eb="126">
       <t>イミ</t>
     </rPh>
+    <rPh sb="134" eb="135">
+      <t>スコ</t>
+    </rPh>
     <rPh sb="136" eb="138">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
       <t>ツウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>株価とFXの関連性を整理する
-→まずは過去にまとめた資料をいただく</t>
-    <rPh sb="0" eb="2">
-      <t>カブカ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>カンレンセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セイリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>印出</t>
-    <rPh sb="0" eb="1">
-      <t>イン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GitHubへの資料登録</t>
-    <rPh sb="8" eb="10">
-      <t>シリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次回の場所の予約</t>
-    <rPh sb="0" eb="2">
-      <t>ジカイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バショ</t>
-    </rPh>
+    <t>4/12　お手製タブローで分析中のため、引続き継続</t>
     <rPh sb="6" eb="8">
-      <t>ヨヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山田</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4/19
-　登録済み</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4/19
-　カラオケは1人あたり500円以上/30分なので高くつく。
-　貸し会議室でいくつか候補あり</t>
-    <rPh sb="12" eb="13">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>エン</t>
+      <t>テセイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ブンセキチュウ</t>
     </rPh>
     <rPh sb="20" eb="22">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="38" eb="41">
-      <t>カイギシツ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>コウホ</t>
+      <t>ヒキツヅ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -659,11 +671,8 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,28 +680,17 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill>
@@ -1603,10 +1601,10 @@
   <dimension ref="A1:AU31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1639,48 +1637,48 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:47" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:47" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
@@ -1700,7 +1698,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G4" s="14">
         <v>42838</v>
@@ -1976,7 +1974,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G8" s="14">
         <v>42855</v>
@@ -2101,20 +2099,20 @@
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="14">
         <v>42852</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I10" s="14">
         <v>42838</v>
@@ -2167,22 +2165,22 @@
         <v>30</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>39</v>
-      </c>
       <c r="F11" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" s="23">
         <v>42845</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I11" s="23">
         <v>42838</v>
@@ -2237,22 +2235,22 @@
         <v>28</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="E12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="G12" s="14">
         <v>42845</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="14">
         <v>42838</v>
@@ -3120,285 +3118,285 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:H4 A14:H16 A4:A16 A5:F7">
-    <cfRule type="expression" dxfId="55" priority="499" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="499" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="54" priority="392" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="392" stopIfTrue="1">
       <formula>$G16&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="53" priority="390" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="390" stopIfTrue="1">
       <formula>($B16="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="52" priority="368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="368" stopIfTrue="1">
       <formula>($B16="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A16">
-    <cfRule type="expression" dxfId="51" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="72" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="50" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="71" stopIfTrue="1">
       <formula>$G4&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="49" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="70" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="48" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="69" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="47" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="67" stopIfTrue="1">
       <formula>$G15&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="46" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="66" stopIfTrue="1">
       <formula>($B15="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="45" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="65" stopIfTrue="1">
       <formula>($B15="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="44" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="63" stopIfTrue="1">
       <formula>$G14&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="43" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="62" stopIfTrue="1">
       <formula>($B14="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="42" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="61" stopIfTrue="1">
       <formula>($B14="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="41" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="57" stopIfTrue="1">
       <formula>($B7="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="40" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="44" stopIfTrue="1">
       <formula>$G6&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="39" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="43" stopIfTrue="1">
       <formula>($B6="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="38" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="49" stopIfTrue="1">
       <formula>($B5="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="expression" dxfId="37" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="48" stopIfTrue="1">
       <formula>($B5="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="36" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="47" stopIfTrue="1">
       <formula>$G5&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="35" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="46" stopIfTrue="1">
       <formula>($B5="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="34" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="45" stopIfTrue="1">
       <formula>($B6="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:H13 A12 F12 C12:D12">
-    <cfRule type="expression" dxfId="32" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="42" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="expression" dxfId="31" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="41" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="30" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="40" stopIfTrue="1">
       <formula>$G13&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="29" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
       <formula>($B13="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="28" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
       <formula>($B13="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
       <formula>$G10&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
       <formula>($B10="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:H10 A11 C11:H11">
-    <cfRule type="expression" dxfId="25" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="34" stopIfTrue="1">
       <formula>($B10="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A11">
-    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="33" stopIfTrue="1">
       <formula>($B10="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="23" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="32" stopIfTrue="1">
       <formula>$G11&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="22" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="30" stopIfTrue="1">
       <formula>($B11="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="21" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="27" stopIfTrue="1">
       <formula>($B10="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F9 A8:A9">
-    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="26" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="18" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="22" stopIfTrue="1">
       <formula>($B9="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
       <formula>($B9="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>$G7&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I9">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
       <formula>($B7="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H9">
-    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="16" stopIfTrue="1">
       <formula>($B7="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>($B9="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
       <formula>$G12&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I12">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
       <formula>($B11="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>($B6="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>($B11="済")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/000_management/tasklist.xlsx
+++ b/000_management/tasklist.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>NO</t>
     <phoneticPr fontId="4"/>
@@ -200,16 +200,6 @@
   </si>
   <si>
     <t>山田</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>優先１のバックテスト(バックテストができない場合にはいきなりデモ口座でのフォワードテスト)</t>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウザ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -363,6 +353,35 @@
     </rPh>
     <rPh sb="46" eb="48">
       <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/12　お手製タブローで分析中のため、引続き継続</t>
+    <rPh sb="6" eb="8">
+      <t>テセイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ブンセキチュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒキツヅ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先１の実装(バックテストができない場合にはいきなりデモ口座でのフォワードテスト)</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウザ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -373,7 +392,10 @@
 　・バックテストはできるが1分足でしかデータ取得はできない
 　・僅かなPipをとるので、掛け金を大幅に増やす
 　・本番で実施しないと意味がないため、もう少し精査できたら
-　　1000通貨でテストをしてみるか</t>
+　　1000通貨でテストをしてみるか
+4/20
+　・サンプルソースがあったので、それが使えそう
+　　http://fxantenna.com/post-1450/</t>
     <rPh sb="13" eb="14">
       <t>カン</t>
     </rPh>
@@ -431,21 +453,25 @@
     <rPh sb="149" eb="151">
       <t>ツウカ</t>
     </rPh>
+    <rPh sb="186" eb="187">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4/12　お手製タブローで分析中のため、引続き継続</t>
-    <rPh sb="6" eb="8">
-      <t>テセイ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ブンセキチュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒキツヅ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ケイゾク</t>
+    <t>4/20　
+　・ブローカーのサンプルソースを使って、通貨間は検証できる</t>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -671,8 +697,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,11 +709,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1604,7 +1630,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1637,68 +1663,68 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:47" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:47" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:47" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="14">
         <v>42838</v>
@@ -1754,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>16</v>
@@ -1766,7 +1792,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="23">
         <v>42838</v>
@@ -1824,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>16</v>
@@ -1836,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="23">
         <v>42838</v>
@@ -1894,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>16</v>
@@ -1906,7 +1932,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="14">
         <v>42845</v>
@@ -1962,7 +1988,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>16</v>
@@ -1974,7 +2000,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" s="14">
         <v>42855</v>
@@ -2030,7 +2056,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>16</v>
@@ -2042,7 +2068,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="23">
         <v>42838</v>
@@ -2099,20 +2125,22 @@
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="G10" s="14">
         <v>42852</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="14">
         <v>42838</v>
@@ -2162,25 +2190,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="E11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="G11" s="23">
         <v>42845</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="23">
         <v>42838</v>
@@ -2232,25 +2260,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="F12" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="14">
         <v>42845</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="14">
         <v>42838</v>
@@ -3118,16 +3146,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:H4 A14:H16 A4:A16 A5:F7">

--- a/000_management/tasklist.xlsx
+++ b/000_management/tasklist.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>NO</t>
     <phoneticPr fontId="4"/>
@@ -353,22 +353,6 @@
     </rPh>
     <rPh sb="46" eb="48">
       <t>コウホ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4/12　お手製タブローで分析中のため、引続き継続</t>
-    <rPh sb="6" eb="8">
-      <t>テセイ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ブンセキチュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒキツヅ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ケイゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -473,6 +457,51 @@
     <rPh sb="30" eb="32">
       <t>ケンショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/12　お手製タブローで分析中のため、引続き継続
+4/27
+　　・1分足のP-Valueをファイルに出力済み
+　　　→GITHUBにアップする
+　　・今後1H足も検討する</t>
+    <rPh sb="6" eb="8">
+      <t>テセイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ブンセキチュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒキツヅ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -697,11 +726,8 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,8 +735,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1627,10 +1656,10 @@
   <dimension ref="A1:AU31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1663,48 +1692,48 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:47" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:47" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
@@ -1718,13 +1747,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="14">
         <v>42838</v>
@@ -1982,7 +2011,7 @@
       <c r="AT7" s="9"/>
       <c r="AU7" s="9"/>
     </row>
-    <row r="8" spans="1:47" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:47" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2000,7 +2029,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G8" s="14">
         <v>42855</v>
@@ -2134,7 +2163,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="14">
         <v>42852</v>
@@ -2260,7 +2289,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>33</v>
@@ -2283,7 +2312,9 @@
       <c r="I12" s="14">
         <v>42838</v>
       </c>
-      <c r="J12" s="14"/>
+      <c r="J12" s="14">
+        <v>42852</v>
+      </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -3146,16 +3177,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:H4 A14:H16 A4:A16 A5:F7">
